--- a/docs/Initial Goals.xlsx
+++ b/docs/Initial Goals.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkyle2/Google Drive/Teaching/2021_1 CorpLing Working Group/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkyle2/Google Drive/Teaching/2021_1 CorpLing Working Group/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D7537F-C7F4-5240-B01D-F7D2D6A6A4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB487462-FE84-8D4E-B8CF-6DDBB763A530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33560" yWindow="4320" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{7FA8E5A7-A412-6F41-BB46-5B49E29805EF}"/>
+    <workbookView xWindow="-30820" yWindow="3420" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{7FA8E5A7-A412-6F41-BB46-5B49E29805EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Session Leading" sheetId="1" r:id="rId1"/>
+    <sheet name="Goals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Corpus Working Group</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,30 +535,48 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
